--- a/VersionRecords/Version 400SupportOPT/定时器/新增定时器 (EQ组).xlsx
+++ b/VersionRecords/Version 400SupportOPT/定时器/新增定时器 (EQ组).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="job任务模板" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>上线版本</t>
   </si>
@@ -68,54 +68,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>LTS</t>
-  </si>
-  <si>
-    <t>EQ组</t>
-  </si>
-  <si>
-    <t>批量创建TP渠道分机定时器</t>
-  </si>
-  <si>
-    <t>追梦</t>
-  </si>
-  <si>
-    <t>五味</t>
-  </si>
-  <si>
-    <t>启用</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.TelePromotionExtCreationTask</t>
-  </si>
-  <si>
-    <t>不用填</t>
-  </si>
-  <si>
-    <t>TelePromotionExtCreationTask</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.TelePromotionExtCreationTask"}</t>
-  </si>
-  <si>
-    <t>定时任务</t>
-  </si>
-  <si>
-    <t>按需只执行一次</t>
-  </si>
-  <si>
-    <t>可重复执行，如有错，需开发修复</t>
-  </si>
-  <si>
-    <t>对于具备TP资质的房东，为其批量创建TP渠道的分机</t>
   </si>
 </sst>
 </file>
@@ -124,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -167,15 +119,106 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,51 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -242,39 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,21 +254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -311,6 +262,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -323,13 +282,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -358,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +519,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -582,6 +545,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -593,6 +571,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,50 +616,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,148 +636,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -834,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1273,7 +1225,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1354,58 +1306,24 @@
       </c>
     </row>
     <row r="2" ht="77.25" customHeight="1" spans="1:18">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
